--- a/AOSInvalidLogin/Default.xlsx
+++ b/AOSInvalidLogin/Default.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>Username</t>
   </si>
   <si>
     <t>John</t>
+  </si>
+  <si>
+    <t>signInResultMessage_innertext_out</t>
   </si>
   <si>
     <t>Mary</t>
@@ -171,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -203,20 +206,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,37 +540,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="9.41796875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.41796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="14.95" s="2" customFormat="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
+      <c r="A3" s="5" t="s">
+        <v>3</v>
       </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
+      <c r="A4" s="5" t="s">
+        <v>4</v>
       </c>
+      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AOSInvalidLogin/Default.xlsx
+++ b/AOSInvalidLogin/Default.xlsx
@@ -15,12 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
   <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Opentext1</t>
+  </si>
+  <si>
     <t>John</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
   <si>
     <t>signInResultMessage_innertext_out</t>
@@ -184,23 +193,8 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -219,8 +213,23 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -232,18 +241,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,43 +549,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="2" width="9.41796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.41796875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" s="2" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="14.95" s="6" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4"/>
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -593,7 +623,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="8.8984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1"/>

--- a/AOSInvalidLogin/Default.xlsx
+++ b/AOSInvalidLogin/Default.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="Action1" sheetId="2" r:id="rId2"/>
+    <sheet name="Invalid Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Access My Profile" sheetId="3" r:id="rId3"/>
+    <sheet name="SHop for product" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -216,7 +218,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -227,9 +231,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -241,17 +243,17 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -552,23 +554,23 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="3" width="9.41796875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="3" width="9.41796875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" s="6" customFormat="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -577,7 +579,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -586,7 +588,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -595,7 +597,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -604,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -614,6 +616,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95"/>
+  <cols>
+    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -621,9 +661,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="2" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1"/>
